--- a/DB/tipos.xlsx
+++ b/DB/tipos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -163,6 +163,60 @@
   </si>
   <si>
     <t>3,8,13,17,18</t>
+  </si>
+  <si>
+    <t>2,4,5,7,10,12,16</t>
+  </si>
+  <si>
+    <t>2,3,4,5,7,8,9,10,11,12,13,15,16,17,18</t>
+  </si>
+  <si>
+    <t>2,14,16</t>
+  </si>
+  <si>
+    <t>1,3,4,7,12,17,18</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6,7,8,9,11,12,14,16,18</t>
+  </si>
+  <si>
+    <t>3,7,9,18</t>
+  </si>
+  <si>
+    <t>1,10,16</t>
+  </si>
+  <si>
+    <t>2,4,5,6,8,11,12,14,15,17</t>
+  </si>
+  <si>
+    <t>8,10,15</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,9,11,12,14,16,17,18</t>
+  </si>
+  <si>
+    <t>1,5,7,14,17</t>
+  </si>
+  <si>
+    <t>2,4,6,8,9,10,11,13,15,16</t>
+  </si>
+  <si>
+    <t>7,14,16,17</t>
+  </si>
+  <si>
+    <t>2,3,4,5,7,9,10,11,13,15,18</t>
+  </si>
+  <si>
+    <t>3,10,12</t>
+  </si>
+  <si>
+    <t>2,4,6,7,8,9,11,13,15,16,17,18</t>
+  </si>
+  <si>
+    <t>1,5,14</t>
+  </si>
+  <si>
+    <t>5,6,8,9,10,11,13,15</t>
   </si>
 </sst>
 </file>
@@ -483,7 +537,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,6 +741,9 @@
       <c r="C11" t="s">
         <v>46</v>
       </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
       <c r="E11">
         <v>6</v>
       </c>
@@ -701,6 +758,15 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>1.1399999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -709,6 +775,15 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -717,6 +792,18 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
+      <c r="C14">
+        <v>10.17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>1.1299999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -725,6 +812,15 @@
       <c r="B15" t="s">
         <v>19</v>
       </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -733,29 +829,71 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>6.13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
